--- a/data_year/zb/公共管理、社会保障及其他/交通事故/交通事故死亡人数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/交通事故/交通事故死亡人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>特大交通事故死亡人数</t>
+          <t>自行车交通事故死亡人数</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>自行车交通事故死亡人数</t>
+          <t>行人乘车人交通事故死亡人数</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>行人乘车人交通事故死亡人数</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>重大交通事故死亡人数</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>非机动车交通事故死亡人数</t>
         </is>
@@ -493,811 +483,409 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93853</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>65225</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
       <c r="D2" t="n">
-        <v>3194</v>
+        <v>1908</v>
       </c>
       <c r="E2" t="n">
-        <v>16261</v>
+        <v>12369</v>
       </c>
       <c r="F2" t="n">
-        <v>81562</v>
+        <v>62380</v>
       </c>
       <c r="G2" t="n">
-        <v>55298</v>
+        <v>46878</v>
       </c>
       <c r="H2" t="n">
-        <v>7421</v>
+        <v>447</v>
       </c>
       <c r="I2" t="n">
-        <v>3720</v>
+        <v>1222</v>
       </c>
       <c r="J2" t="n">
-        <v>7014</v>
-      </c>
-      <c r="K2" t="n">
-        <v>86432</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4563</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105930</v>
+        <v>62387</v>
       </c>
       <c r="C3" t="n">
-        <v>764</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>3552</v>
+        <v>1546</v>
       </c>
       <c r="E3" t="n">
-        <v>20068</v>
+        <v>11070</v>
       </c>
       <c r="F3" t="n">
-        <v>93269</v>
+        <v>59673</v>
       </c>
       <c r="G3" t="n">
-        <v>62737</v>
+        <v>46100</v>
       </c>
       <c r="H3" t="n">
-        <v>7467</v>
+        <v>315</v>
       </c>
       <c r="I3" t="n">
-        <v>3856</v>
+        <v>1134</v>
       </c>
       <c r="J3" t="n">
-        <v>7196</v>
-      </c>
-      <c r="K3" t="n">
-        <v>98463</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4701</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109381</v>
+        <v>59997</v>
       </c>
       <c r="C4" t="n">
-        <v>12078</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>3611</v>
+        <v>1297</v>
       </c>
       <c r="E4" t="n">
-        <v>21236</v>
+        <v>10643</v>
       </c>
       <c r="F4" t="n">
-        <v>85916</v>
+        <v>57277</v>
       </c>
       <c r="G4" t="n">
-        <v>65216</v>
+        <v>44679</v>
       </c>
       <c r="H4" t="n">
-        <v>8217</v>
+        <v>279</v>
       </c>
       <c r="I4" t="n">
-        <v>3473</v>
+        <v>1075</v>
       </c>
       <c r="J4" t="n">
-        <v>6798</v>
-      </c>
-      <c r="K4" t="n">
-        <v>101164</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4589</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104372</v>
+        <v>58539</v>
       </c>
       <c r="C5" t="n">
-        <v>942</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>3294</v>
+        <v>1259</v>
       </c>
       <c r="E5" t="n">
-        <v>20026</v>
+        <v>10463</v>
       </c>
       <c r="F5" t="n">
-        <v>93390</v>
+        <v>55316</v>
       </c>
       <c r="G5" t="n">
-        <v>61869</v>
+        <v>42927</v>
       </c>
       <c r="H5" t="n">
-        <v>7720</v>
+        <v>300</v>
       </c>
       <c r="I5" t="n">
-        <v>3278</v>
+        <v>1185</v>
       </c>
       <c r="J5" t="n">
-        <v>6022</v>
-      </c>
-      <c r="K5" t="n">
-        <v>92594</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107077</v>
+        <v>58523</v>
       </c>
       <c r="C6" t="n">
-        <v>2901</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>3388</v>
+        <v>1018</v>
       </c>
       <c r="E6" t="n">
-        <v>21418</v>
+        <v>10411</v>
       </c>
       <c r="F6" t="n">
-        <v>97456</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>54944</v>
+      </c>
+      <c r="G6" t="n">
+        <v>42847</v>
+      </c>
+      <c r="H6" t="n">
+        <v>289</v>
+      </c>
       <c r="I6" t="n">
-        <v>2000</v>
+        <v>1247</v>
       </c>
       <c r="J6" t="n">
-        <v>3990</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>2730</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98738</v>
+        <v>58022</v>
       </c>
       <c r="C7" t="n">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>2933</v>
+        <v>958</v>
       </c>
       <c r="E7" t="n">
-        <v>20773</v>
+        <v>10359</v>
       </c>
       <c r="F7" t="n">
-        <v>93614</v>
+        <v>54279</v>
       </c>
       <c r="G7" t="n">
-        <v>69808</v>
+        <v>42388</v>
       </c>
       <c r="H7" t="n">
-        <v>7639</v>
+        <v>304</v>
       </c>
       <c r="I7" t="n">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="J7" t="n">
-        <v>2902</v>
-      </c>
-      <c r="K7" t="n">
-        <v>98738</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1876</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89455</v>
+        <v>63093</v>
       </c>
       <c r="C8" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>3142</v>
+        <v>967</v>
       </c>
       <c r="E8" t="n">
-        <v>19677</v>
+        <v>11235</v>
       </c>
       <c r="F8" t="n">
-        <v>84805</v>
+        <v>58803</v>
       </c>
       <c r="G8" t="n">
-        <v>55992</v>
+        <v>45990</v>
       </c>
       <c r="H8" t="n">
-        <v>6611</v>
+        <v>341</v>
       </c>
       <c r="I8" t="n">
-        <v>1233</v>
+        <v>1304</v>
       </c>
       <c r="J8" t="n">
-        <v>2464</v>
-      </c>
-      <c r="K8" t="n">
-        <v>89038</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2108</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81649</v>
+        <v>63772</v>
       </c>
       <c r="C9" t="n">
         <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>2869</v>
+        <v>804</v>
       </c>
       <c r="E9" t="n">
-        <v>17403</v>
+        <v>10991</v>
       </c>
       <c r="F9" t="n">
-        <v>77696</v>
+        <v>59166</v>
       </c>
       <c r="G9" t="n">
-        <v>56089</v>
+        <v>46817</v>
       </c>
       <c r="H9" t="n">
-        <v>5713</v>
+        <v>350</v>
       </c>
       <c r="I9" t="n">
-        <v>957</v>
+        <v>1322</v>
       </c>
       <c r="J9" t="n">
-        <v>1954</v>
-      </c>
-      <c r="K9" t="n">
-        <v>81649</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1968</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73484</v>
+        <v>63194</v>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D10" t="n">
-        <v>2410</v>
+        <v>780</v>
       </c>
       <c r="E10" t="n">
-        <v>15118</v>
+        <v>10663</v>
       </c>
       <c r="F10" t="n">
-        <v>70206</v>
+        <v>58091</v>
       </c>
       <c r="G10" t="n">
-        <v>51436</v>
+        <v>46161</v>
       </c>
       <c r="H10" t="n">
-        <v>5222</v>
+        <v>372</v>
       </c>
       <c r="I10" t="n">
-        <v>712</v>
+        <v>1325</v>
       </c>
       <c r="J10" t="n">
-        <v>1507</v>
-      </c>
-      <c r="K10" t="n">
-        <v>73484</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1754</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67759</v>
+        <v>62763</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>2214</v>
+        <v>699</v>
       </c>
       <c r="E11" t="n">
-        <v>13501</v>
+        <v>10474</v>
       </c>
       <c r="F11" t="n">
-        <v>64781</v>
+        <v>56924</v>
       </c>
       <c r="G11" t="n">
-        <v>47896</v>
+        <v>43413</v>
       </c>
       <c r="H11" t="n">
-        <v>5058</v>
+        <v>440</v>
       </c>
       <c r="I11" t="n">
-        <v>548</v>
+        <v>1437</v>
       </c>
       <c r="J11" t="n">
-        <v>1227</v>
-      </c>
-      <c r="K11" t="n">
-        <v>67759</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1718</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65225</v>
+        <v>61703</v>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>1908</v>
+        <v>615</v>
       </c>
       <c r="E12" t="n">
-        <v>12369</v>
+        <v>10463</v>
       </c>
       <c r="F12" t="n">
-        <v>62380</v>
+        <v>55950</v>
       </c>
       <c r="G12" t="n">
-        <v>46878</v>
+        <v>43098</v>
       </c>
       <c r="H12" t="n">
-        <v>5061</v>
+        <v>511</v>
       </c>
       <c r="I12" t="n">
-        <v>447</v>
+        <v>1349</v>
       </c>
       <c r="J12" t="n">
-        <v>1222</v>
-      </c>
-      <c r="K12" t="n">
-        <v>65225</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1600</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62387</v>
+        <v>62218</v>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
-        <v>1546</v>
+        <v>495</v>
       </c>
       <c r="E13" t="n">
-        <v>11070</v>
+        <v>10137</v>
       </c>
       <c r="F13" t="n">
-        <v>59673</v>
+        <v>56249</v>
       </c>
       <c r="G13" t="n">
-        <v>46100</v>
+        <v>43601</v>
       </c>
       <c r="H13" t="n">
-        <v>5047</v>
+        <v>493</v>
       </c>
       <c r="I13" t="n">
-        <v>315</v>
+        <v>1413</v>
       </c>
       <c r="J13" t="n">
-        <v>1134</v>
-      </c>
-      <c r="K13" t="n">
-        <v>62387</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>59997</v>
-      </c>
-      <c r="C14" t="n">
-        <v>17</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1297</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10643</v>
-      </c>
-      <c r="F14" t="n">
-        <v>57277</v>
-      </c>
-      <c r="G14" t="n">
-        <v>44679</v>
-      </c>
-      <c r="H14" t="n">
-        <v>36</v>
-      </c>
-      <c r="I14" t="n">
-        <v>279</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1075</v>
-      </c>
-      <c r="K14" t="n">
-        <v>325</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>58539</v>
-      </c>
-      <c r="C15" t="n">
-        <v>19</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1259</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10463</v>
-      </c>
-      <c r="F15" t="n">
-        <v>55316</v>
-      </c>
-      <c r="G15" t="n">
-        <v>42927</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>300</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1185</v>
-      </c>
-      <c r="K15" t="n">
-        <v>208</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>58523</v>
-      </c>
-      <c r="C16" t="n">
-        <v>21</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1018</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10411</v>
-      </c>
-      <c r="F16" t="n">
-        <v>54944</v>
-      </c>
-      <c r="G16" t="n">
-        <v>42847</v>
-      </c>
-      <c r="H16" t="n">
-        <v>98</v>
-      </c>
-      <c r="I16" t="n">
-        <v>289</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1247</v>
-      </c>
-      <c r="K16" t="n">
-        <v>131</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>58022</v>
-      </c>
-      <c r="C17" t="n">
-        <v>22</v>
-      </c>
-      <c r="D17" t="n">
-        <v>958</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10359</v>
-      </c>
-      <c r="F17" t="n">
-        <v>54279</v>
-      </c>
-      <c r="G17" t="n">
-        <v>42388</v>
-      </c>
-      <c r="H17" t="n">
-        <v>35</v>
-      </c>
-      <c r="I17" t="n">
-        <v>304</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1192</v>
-      </c>
-      <c r="K17" t="n">
-        <v>187</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>63093</v>
-      </c>
-      <c r="C18" t="n">
-        <v>18</v>
-      </c>
-      <c r="D18" t="n">
-        <v>967</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11235</v>
-      </c>
-      <c r="F18" t="n">
-        <v>58803</v>
-      </c>
-      <c r="G18" t="n">
-        <v>45990</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>341</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1304</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>63772</v>
-      </c>
-      <c r="C19" t="n">
-        <v>31</v>
-      </c>
-      <c r="D19" t="n">
-        <v>804</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10991</v>
-      </c>
-      <c r="F19" t="n">
-        <v>59166</v>
-      </c>
-      <c r="G19" t="n">
-        <v>46817</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>350</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1322</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>3253</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>63194</v>
-      </c>
-      <c r="C20" t="n">
-        <v>37</v>
-      </c>
-      <c r="D20" t="n">
-        <v>780</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10663</v>
-      </c>
-      <c r="F20" t="n">
-        <v>58091</v>
-      </c>
-      <c r="G20" t="n">
-        <v>46161</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>372</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1325</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>3741</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>62763</v>
-      </c>
-      <c r="C21" t="n">
-        <v>27</v>
-      </c>
-      <c r="D21" t="n">
-        <v>699</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10474</v>
-      </c>
-      <c r="F21" t="n">
-        <v>56924</v>
-      </c>
-      <c r="G21" t="n">
-        <v>43413</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>440</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1437</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>4375</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>61703</v>
-      </c>
-      <c r="C22" t="n">
-        <v>31</v>
-      </c>
-      <c r="D22" t="n">
-        <v>615</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10463</v>
-      </c>
-      <c r="F22" t="n">
-        <v>55950</v>
-      </c>
-      <c r="G22" t="n">
-        <v>43098</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>511</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1349</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>4373</v>
+        <v>4525</v>
       </c>
     </row>
   </sheetData>
